--- a/src/test/java/com/example/moneyAllocation/repository/data/transfer_insert_expected.xlsx
+++ b/src/test/java/com/example/moneyAllocation/repository/data/transfer_insert_expected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryotasato/local-dev/MoneyAllocation/allocation-api/src/test/java/com/example/moneyAllocation/repository/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4360573-DFF1-3746-B73D-6EC83A7D78FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD541137-991E-7D49-866A-A2E693DA2F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22920" yWindow="14400" windowWidth="22920" windowHeight="14400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
